--- a/Dzienniczek.xlsx
+++ b/Dzienniczek.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2406" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2408" uniqueCount="133">
   <si>
     <t>Lp</t>
   </si>
@@ -441,6 +441,12 @@
   <si>
     <t>9.3.2023</t>
   </si>
+  <si>
+    <t>dsds</t>
+  </si>
+  <si>
+    <t>12.3.2023</t>
+  </si>
 </sst>
 </file>
 
@@ -788,7 +794,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1045,6 +1051,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyAlignment="true" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -13645,8 +13654,8 @@
   <sheetData>
     <row r="1" spans="1:26" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1" s="19"/>
-      <c r="B1" s="107" t="s">
-        <v>127</v>
+      <c r="B1" s="108" t="s">
+        <v>129</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
